--- a/forwarding_mail_data.xlsx
+++ b/forwarding_mail_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">email</t>
   </si>
@@ -32,31 +32,58 @@
     <t xml:space="preserve">email_protect</t>
   </si>
   <si>
-    <t xml:space="preserve">safigrapesx@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hz520V12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">safigrapesx@minh.live</t>
-  </si>
-  <si>
-    <t xml:space="preserve">speltzhiskes@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idgEBQ80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">speltzhiskes@minh.live</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choatbuehli@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dOOXuP10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choatbuehli@minh.live</t>
+    <t xml:space="preserve">shultssmalln@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JhyMTN55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shultssmalln@minh.live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cheongdockalf@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uUStzi79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cheongdockalf@minh.live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egerersacchir@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rGBuCZ73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egerersacchir@minh.live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kuchanflakss@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RypKev38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kuchanflakss@minh.live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shammokubes@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xJb0DK91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shammokubes@minh.live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lazierelwaym@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X7rtgm89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lazierelwaym@minh.live</t>
   </si>
   <si>
     <t xml:space="preserve">main_email</t>
@@ -136,10 +163,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -168,7 +195,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -189,12 +216,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -224,8 +255,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -233,7 +264,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="95.33"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="1" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="12.71"/>
   </cols>
@@ -250,7 +281,7 @@
       </c>
       <c r="AMJ1" s="4"/>
     </row>
-    <row r="2" s="3" customFormat="true" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="43.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -260,9 +291,10 @@
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="6"/>
       <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="30.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="37.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -272,9 +304,10 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AMJ3" s="4"/>
-    </row>
-    <row r="4" s="3" customFormat="true" ht="30.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D3" s="6"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="37.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -284,43 +317,145 @@
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AMJ4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="45.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="41.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="42.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="41.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-    </row>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -388,37 +523,37 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="1" sqref="A4:C7 C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="44.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="26.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="7" width="11.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="44.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="26.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="8" width="11.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>14</v>
+      <c r="A1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="8" t="n">
+      <c r="A2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="9" t="n">
         <v>3</v>
       </c>
     </row>
